--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83271479-D239-45E5-8FC0-358AF4E1FCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F3638E-AA75-4AD4-A67D-C6EC3D1FBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>selectType</t>
   </si>
@@ -156,9 +156,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>TGH-52H-TGNM</t>
-  </si>
-  <si>
     <t>2023-08-22</t>
   </si>
   <si>
@@ -219,10 +216,10 @@
     <t/>
   </si>
   <si>
-    <t>TGH-52asd6tH-TGNM</t>
+    <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -290,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -330,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -436,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -578,7 +575,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,7 +587,7 @@
   <dimension ref="A1:XEZ996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,65 +773,65 @@
         <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -842,30 +839,30 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
@@ -881,65 +878,65 @@
         <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
@@ -947,30 +944,30 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="AJ3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
       <c r="AO3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AP3" s="2"/>
       <c r="AQ3" s="2"/>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F3638E-AA75-4AD4-A67D-C6EC3D1FBC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE2EDF5-75D4-4B7A-B069-947C305E5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
+++ b/Data Files/Input Validation/08. selecttype/Auto_SelectType_C20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE2EDF5-75D4-4B7A-B069-947C305E5835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A1F74-FB58-46E7-BA61-A088A26B10DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -219,7 +219,7 @@
     <t>a5lk0a-tlk6uhc</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
